--- a/database/calliope_generators_kalimantan.xlsx
+++ b/database/calliope_generators_kalimantan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C1770-5C90-48B3-99C8-8A2C674D251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CA026-7046-4A0A-944B-9705F0B180A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11748" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2214,8 +2214,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7007,19 +7008,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P464"/>
+  <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="56" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -13767,6 +13772,9 @@
       <c r="H158" t="s">
         <v>555</v>
       </c>
+      <c r="M158">
+        <v>35</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -14213,6 +14221,9 @@
       <c r="H168" t="s">
         <v>555</v>
       </c>
+      <c r="M168">
+        <v>35</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -15342,7 +15353,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>538</v>
       </c>
@@ -15368,7 +15379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -15415,7 +15426,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -15461,7 +15472,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -15508,7 +15519,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -15555,7 +15566,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -15602,7 +15613,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -15649,7 +15660,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -15696,7 +15707,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -15713,9 +15724,6 @@
         <f>_xlfn.XLOOKUP(B201,[1]plotting_generators_substation!$L$2:$L$464,[1]plotting_generators_substation!$C$2:$C$464)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="F201">
-        <v>14</v>
-      </c>
       <c r="G201" t="s">
         <v>17</v>
       </c>
@@ -15742,11 +15750,8 @@
         <f>_xlfn.XLOOKUP(J201,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="P201">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -15792,7 +15797,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -15839,7 +15844,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -15886,7 +15891,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -15933,7 +15938,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -15980,7 +15985,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -16027,7 +16032,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -16073,11 +16078,8 @@
         <f>_xlfn.XLOOKUP(J208,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="P208">
-        <v>1.5840000000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16126,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -16171,7 +16173,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -16217,11 +16219,8 @@
         <f>_xlfn.XLOOKUP(J211,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="P211">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -16362,7 +16361,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -16409,7 +16408,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -16502,11 +16501,8 @@
         <f>_xlfn.XLOOKUP(J217,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="P217">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -16552,11 +16548,8 @@
         <f>_xlfn.XLOOKUP(J218,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Tengah</v>
       </c>
-      <c r="P218">
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -16603,7 +16596,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -16650,7 +16643,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -16697,7 +16690,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -16744,7 +16737,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -16791,7 +16784,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -26683,6 +26676,9 @@
       <c r="H439" t="s">
         <v>549</v>
       </c>
+      <c r="M439">
+        <v>63</v>
+      </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
@@ -27129,6 +27125,9 @@
       <c r="H449" t="s">
         <v>555</v>
       </c>
+      <c r="M449">
+        <v>63</v>
+      </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
@@ -27152,6 +27151,9 @@
       <c r="H450" t="s">
         <v>555</v>
       </c>
+      <c r="M450">
+        <v>63</v>
+      </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
@@ -27316,6 +27318,9 @@
       <c r="H454" t="s">
         <v>549</v>
       </c>
+      <c r="M454">
+        <v>63</v>
+      </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
@@ -27339,6 +27344,9 @@
       <c r="H455" t="s">
         <v>549</v>
       </c>
+      <c r="M455">
+        <v>63</v>
+      </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
@@ -27362,6 +27370,9 @@
       <c r="H456" t="s">
         <v>549</v>
       </c>
+      <c r="M456">
+        <v>63</v>
+      </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
@@ -27385,6 +27396,9 @@
       <c r="H457" t="s">
         <v>549</v>
       </c>
+      <c r="M457">
+        <v>63</v>
+      </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
@@ -27408,6 +27422,9 @@
       <c r="H458" t="s">
         <v>549</v>
       </c>
+      <c r="M458">
+        <v>63</v>
+      </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
@@ -27431,6 +27448,9 @@
       <c r="H459" t="s">
         <v>549</v>
       </c>
+      <c r="M459">
+        <v>63</v>
+      </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
@@ -27548,6 +27568,9 @@
       <c r="H462" t="s">
         <v>549</v>
       </c>
+      <c r="M462">
+        <v>63</v>
+      </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
@@ -27642,6 +27665,12 @@
         <f>_xlfn.XLOOKUP(J464,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
         <v>Kalimantan Utara</v>
       </c>
+    </row>
+    <row r="467" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H467" s="1"/>
+    </row>
+    <row r="468" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H468" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/database/calliope_generators_kalimantan.xlsx
+++ b/database/calliope_generators_kalimantan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CA026-7046-4A0A-944B-9705F0B180A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84737C8-BB20-4F62-9BFD-D53B9669F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="11748" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7008,18 +7008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="56" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" hidden="1" customWidth="1"/>
@@ -7071,7 +7072,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7447,7 +7448,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>553</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>503</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>500</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>501</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>499</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>502</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>512</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -8757,7 +8758,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>506</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>507</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>508</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -9586,7 +9587,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>513</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>515</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>514</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>516</v>
       </c>
@@ -9878,7 +9879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>509</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>511</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>510</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>525</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>517</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -10478,7 +10479,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -10572,7 +10573,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>554</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>518</v>
       </c>
@@ -10953,7 +10954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>519</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>520</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>529</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -11078,7 +11079,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>527</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>521</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>522</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -11578,7 +11579,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -11625,7 +11626,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>526</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -12121,7 +12122,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -12262,7 +12263,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>528</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -12429,7 +12430,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -12476,7 +12477,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -12711,7 +12712,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>523</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>524</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -13045,7 +13046,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -13374,7 +13375,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -13421,7 +13422,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>552</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -13870,7 +13871,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -13964,7 +13965,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>498</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -14319,7 +14320,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -14507,7 +14508,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -14648,7 +14649,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -14695,7 +14696,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -14836,7 +14837,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -14883,7 +14884,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -14930,7 +14931,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -14977,7 +14978,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -15306,7 +15307,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>538</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -15566,7 +15567,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -15751,7 +15752,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -15938,7 +15939,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -15985,7 +15986,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -16126,7 +16127,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -16220,7 +16221,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -16314,7 +16315,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -16361,7 +16362,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -16502,7 +16503,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -16596,7 +16597,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -16690,7 +16691,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -16737,7 +16738,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -16831,7 +16832,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -16925,7 +16926,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -17019,7 +17020,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>537</v>
       </c>
@@ -17045,7 +17046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -17092,7 +17093,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -17139,7 +17140,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -17186,7 +17187,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -17374,7 +17375,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -17421,7 +17422,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -17609,7 +17610,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -17656,7 +17657,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -17985,7 +17986,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -18032,7 +18033,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -18079,7 +18080,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>536</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -18152,7 +18153,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -18199,7 +18200,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -18246,7 +18247,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -18434,7 +18435,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -18481,7 +18482,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -18528,7 +18529,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -18622,7 +18623,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>530</v>
       </c>
@@ -18648,7 +18649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -18742,7 +18743,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -18788,7 +18789,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -18882,7 +18883,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -18929,7 +18930,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -18976,7 +18977,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -19070,7 +19071,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -19117,7 +19118,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -19164,7 +19165,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -19211,7 +19212,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -19352,7 +19353,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -19446,7 +19447,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -19540,7 +19541,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -19587,7 +19588,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -19681,7 +19682,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -19728,7 +19729,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -19822,7 +19823,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -19961,7 +19962,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -20008,7 +20009,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -20055,7 +20056,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -20102,7 +20103,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -20148,7 +20149,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -20195,7 +20196,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -20241,7 +20242,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -20288,7 +20289,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -20335,7 +20336,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -20381,7 +20382,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -20428,7 +20429,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -20475,7 +20476,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -20522,7 +20523,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>532</v>
       </c>
@@ -20548,7 +20549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>533</v>
       </c>
@@ -20574,7 +20575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>534</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>535</v>
       </c>
@@ -20626,7 +20627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -20766,7 +20767,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -20860,7 +20861,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -20907,7 +20908,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -20954,7 +20955,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -21001,7 +21002,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -21048,7 +21049,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -21095,7 +21096,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -21142,7 +21143,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -21189,7 +21190,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -21235,7 +21236,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -21282,7 +21283,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -21329,7 +21330,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -21421,7 +21422,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -21467,7 +21468,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -21513,7 +21514,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -21559,7 +21560,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -21606,7 +21607,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -21700,7 +21701,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -21747,7 +21748,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -21841,7 +21842,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -21887,7 +21888,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -21980,7 +21981,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -22027,7 +22028,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -22074,7 +22075,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>531</v>
       </c>
@@ -22100,7 +22101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -22194,7 +22195,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -22241,7 +22242,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -22335,7 +22336,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -22382,7 +22383,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -22429,7 +22430,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -22476,7 +22477,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -22616,7 +22617,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -22662,7 +22663,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -22708,7 +22709,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -22802,7 +22803,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -22896,7 +22897,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -22943,7 +22944,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -23037,7 +23038,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -23131,7 +23132,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -23177,7 +23178,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -23224,7 +23225,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -23271,7 +23272,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -23318,7 +23319,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -23365,7 +23366,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -23412,7 +23413,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -24158,8 +24159,7 @@
         <v>0.16139999999999999</v>
       </c>
       <c r="M385">
-        <f>_xlfn.XLOOKUP(J385,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$G$2:$G$65)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N385" t="str">
         <f>_xlfn.XLOOKUP(J385,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
@@ -24205,8 +24205,7 @@
         <v>0.16139999999999999</v>
       </c>
       <c r="M386">
-        <f>_xlfn.XLOOKUP(J386,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$G$2:$G$65)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N386" t="str">
         <f>_xlfn.XLOOKUP(J386,[2]base_substations_kalimantan!$A$2:$A$65,[2]base_substations_kalimantan!$H$2:$H$65)</f>
@@ -25291,7 +25290,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>11</v>
       </c>
@@ -25338,7 +25337,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -25385,7 +25384,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -25432,7 +25431,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -25479,7 +25478,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -25526,7 +25525,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -25573,7 +25572,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -25620,7 +25619,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -25667,7 +25666,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -25714,7 +25713,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -25761,7 +25760,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -25808,7 +25807,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -25855,7 +25854,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -25902,7 +25901,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -25949,7 +25948,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -25996,7 +25995,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -26043,7 +26042,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -26090,7 +26089,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -26137,7 +26136,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -26184,7 +26183,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -26231,7 +26230,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -26278,7 +26277,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -26325,7 +26324,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -26372,7 +26371,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -26419,7 +26418,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -26466,7 +26465,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -26513,7 +26512,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -26560,7 +26559,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -26607,7 +26606,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -26654,7 +26653,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>540</v>
       </c>
@@ -26680,7 +26679,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -26727,7 +26726,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -26774,7 +26773,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -26821,7 +26820,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -26868,7 +26867,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -26915,7 +26914,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -26962,7 +26961,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -27009,7 +27008,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -27056,7 +27055,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -27103,7 +27102,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>542</v>
       </c>
@@ -27129,7 +27128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>543</v>
       </c>
@@ -27155,7 +27154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -27202,7 +27201,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -27249,7 +27248,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -27296,7 +27295,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>541</v>
       </c>
@@ -27322,7 +27321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>544</v>
       </c>
@@ -27348,7 +27347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>545</v>
       </c>
@@ -27374,7 +27373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>546</v>
       </c>
@@ -27400,7 +27399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>547</v>
       </c>
@@ -27426,7 +27425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>548</v>
       </c>
@@ -27452,7 +27451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -27499,7 +27498,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -27546,7 +27545,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>539</v>
       </c>
@@ -27572,7 +27571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -27619,7 +27618,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -27673,7 +27672,15 @@
       <c r="H468" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="58"/>
+        <filter val="59"/>
+        <filter val="62"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A290:N409">
     <sortCondition ref="M290:M464"/>
   </sortState>

--- a/database/calliope_generators_kalimantan.xlsx
+++ b/database/calliope_generators_kalimantan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_power_system\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_energy_transition\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84737C8-BB20-4F62-9BFD-D53B9669F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7C23F-30CB-44F5-BAAA-8EDA22959456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7008,10 +7008,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
@@ -7072,7 +7071,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>553</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>503</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>500</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>501</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>499</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>502</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -8262,7 +8261,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>512</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>506</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>507</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>508</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -9681,7 +9680,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -9728,7 +9727,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>513</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>515</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>514</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>516</v>
       </c>
@@ -9879,7 +9878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>509</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>511</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>510</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>525</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>517</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>554</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -10881,7 +10880,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>518</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>519</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>520</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>529</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>527</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -11199,7 +11198,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>521</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>522</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -11720,7 +11719,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>526</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -12122,7 +12121,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>528</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -12383,7 +12382,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -12665,7 +12664,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>523</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>524</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>Kalimantan Barat</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -12905,7 +12904,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -13422,7 +13421,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>552</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -13871,7 +13870,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -14059,7 +14058,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>498</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -14273,7 +14272,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -14649,7 +14648,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -14837,7 +14836,7 @@
         <v>Kalimantan Selatan</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -14978,7 +14977,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -15260,7 +15259,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>538</v>
       </c>
@@ -15380,7 +15379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -15520,7 +15519,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -15614,7 +15613,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -15752,7 +15751,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -15845,7 +15844,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -16362,7 +16361,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -16409,7 +16408,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -16503,7 +16502,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -16691,7 +16690,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -16832,7 +16831,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>537</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -17140,7 +17139,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -17187,7 +17186,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -17375,7 +17374,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -17751,7 +17750,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -17798,7 +17797,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -17845,7 +17844,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -17939,7 +17938,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -17986,7 +17985,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -18033,7 +18032,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -18080,7 +18079,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>536</v>
       </c>
@@ -18106,7 +18105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -18200,7 +18199,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -18247,7 +18246,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -18341,7 +18340,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -18435,7 +18434,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -18529,7 +18528,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -18576,7 +18575,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -18623,7 +18622,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>530</v>
       </c>
@@ -18649,7 +18648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -18743,7 +18742,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -18789,7 +18788,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -18883,7 +18882,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -18977,7 +18976,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -19024,7 +19023,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -19071,7 +19070,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -19118,7 +19117,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -19212,7 +19211,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -19259,7 +19258,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -19353,7 +19352,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -19400,7 +19399,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -19447,7 +19446,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -19494,7 +19493,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -19588,7 +19587,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -19682,7 +19681,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -19729,7 +19728,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -19823,7 +19822,7 @@
         <v>Kalimantan Tengah</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -19915,7 +19914,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -19962,7 +19961,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -20056,7 +20055,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -20103,7 +20102,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -20149,7 +20148,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -20196,7 +20195,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -20242,7 +20241,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -20289,7 +20288,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -20336,7 +20335,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -20429,7 +20428,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -20476,7 +20475,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -20523,7 +20522,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>532</v>
       </c>
@@ -20549,7 +20548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>533</v>
       </c>
@@ -20575,7 +20574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>534</v>
       </c>
@@ -20601,7 +20600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>535</v>
       </c>
@@ -20627,7 +20626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -20720,7 +20719,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -20861,7 +20860,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -20908,7 +20907,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -21002,7 +21001,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -21049,7 +21048,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -21096,7 +21095,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -21143,7 +21142,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -21190,7 +21189,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -21236,7 +21235,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -21283,7 +21282,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -21330,7 +21329,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -21376,7 +21375,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -21422,7 +21421,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -21468,7 +21467,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -21514,7 +21513,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -21560,7 +21559,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -21607,7 +21606,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -21701,7 +21700,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -21748,7 +21747,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -21795,7 +21794,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -21842,7 +21841,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -21888,7 +21887,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -21934,7 +21933,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -22028,7 +22027,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>531</v>
       </c>
@@ -22101,7 +22100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -22148,7 +22147,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -22195,7 +22194,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -22289,7 +22288,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -22383,7 +22382,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -22430,7 +22429,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -22477,7 +22476,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -22524,7 +22523,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -22617,7 +22616,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -22663,7 +22662,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -22709,7 +22708,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -22756,7 +22755,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -22803,7 +22802,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -22850,7 +22849,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -22897,7 +22896,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -22944,7 +22943,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -22991,7 +22990,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -23038,7 +23037,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -23085,7 +23084,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -23132,7 +23131,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -23178,7 +23177,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -23225,7 +23224,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -23272,7 +23271,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -23319,7 +23318,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -23366,7 +23365,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -23413,7 +23412,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -25290,7 +25289,7 @@
         <v>Kalimantan Timur</v>
       </c>
     </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>11</v>
       </c>
@@ -25337,7 +25336,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -25384,7 +25383,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -25431,7 +25430,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -25478,7 +25477,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -25525,7 +25524,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -25572,7 +25571,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -25619,7 +25618,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -25666,7 +25665,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -25713,7 +25712,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -25760,7 +25759,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -25807,7 +25806,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -25854,7 +25853,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -25948,7 +25947,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -25995,7 +25994,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -26042,7 +26041,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -26089,7 +26088,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -26136,7 +26135,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -26183,7 +26182,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -26230,7 +26229,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -26277,7 +26276,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -26324,7 +26323,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -26371,7 +26370,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -26418,7 +26417,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -26465,7 +26464,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -26512,7 +26511,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -26559,7 +26558,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -26606,7 +26605,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -26653,7 +26652,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>540</v>
       </c>
@@ -26679,7 +26678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -26726,7 +26725,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -26773,7 +26772,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -26820,7 +26819,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -26867,7 +26866,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -26914,7 +26913,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -26961,7 +26960,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -27008,7 +27007,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -27055,7 +27054,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -27102,7 +27101,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>542</v>
       </c>
@@ -27128,7 +27127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>543</v>
       </c>
@@ -27154,7 +27153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -27201,7 +27200,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -27248,7 +27247,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -27295,7 +27294,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>541</v>
       </c>
@@ -27321,7 +27320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>544</v>
       </c>
@@ -27347,7 +27346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>545</v>
       </c>
@@ -27373,7 +27372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>546</v>
       </c>
@@ -27399,7 +27398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>547</v>
       </c>
@@ -27425,7 +27424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>548</v>
       </c>
@@ -27451,7 +27450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -27498,7 +27497,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -27545,7 +27544,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>539</v>
       </c>
@@ -27571,7 +27570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -27618,7 +27617,7 @@
         <v>Kalimantan Utara</v>
       </c>
     </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -27672,15 +27671,7 @@
       <c r="H468" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="58"/>
-        <filter val="59"/>
-        <filter val="62"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A290:N409">
     <sortCondition ref="M290:M464"/>
   </sortState>

--- a/database/calliope_generators_kalimantan.xlsx
+++ b/database/calliope_generators_kalimantan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilma\Documents\Calliope\kalimantan_energy_transition\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E105362D-569A-49EB-9488-EA9884CEDA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07E39A8-C848-4F21-A0F7-0BC6C0DE251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11724" windowHeight="12636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -7021,11 +7021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7145,7 +7144,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>503</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>500</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>502</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>512</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>506</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>507</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>508</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -10120,7 +10119,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>515</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>514</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>516</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>509</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>511</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>510</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>518</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>519</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>520</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>529</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>521</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>522</v>
       </c>
@@ -12192,7 +12191,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>526</v>
       </c>
@@ -12711,7 +12710,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -12981,7 +12980,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -13035,7 +13034,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -13143,7 +13142,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>528</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>524</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -14052,7 +14051,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -14538,7 +14537,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -14592,7 +14591,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -14754,7 +14753,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -14949,7 +14948,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -15165,7 +15164,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -15381,7 +15380,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>498</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -15522,7 +15521,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -15738,7 +15737,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -16958,7 +16957,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -17120,7 +17119,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17224,7 +17223,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -17278,7 +17277,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17386,7 +17385,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17440,7 +17439,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -17818,7 +17817,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -17980,7 +17979,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -18034,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -18142,7 +18141,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -18358,7 +18357,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -18412,7 +18411,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -19147,7 +19146,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -19309,7 +19308,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -19849,7 +19848,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>536</v>
       </c>
@@ -19882,7 +19881,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -19936,7 +19935,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -19990,7 +19989,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -20044,7 +20043,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -20098,7 +20097,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -20152,7 +20151,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -20260,7 +20259,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -20422,7 +20421,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -20476,7 +20475,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>530</v>
       </c>
@@ -20509,7 +20508,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -20670,7 +20669,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -20724,7 +20723,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -20940,7 +20939,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -20994,7 +20993,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -21102,7 +21101,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -21156,7 +21155,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -21210,7 +21209,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -21264,7 +21263,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -21588,7 +21587,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -21750,7 +21749,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -21964,7 +21963,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -22287,7 +22286,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -22501,7 +22500,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -22663,7 +22662,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>532</v>
       </c>
@@ -22696,7 +22695,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>533</v>
       </c>
@@ -22729,7 +22728,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>534</v>
       </c>
@@ -22762,7 +22761,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>535</v>
       </c>
@@ -22848,7 +22847,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -22902,7 +22901,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -22956,7 +22955,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -23118,7 +23117,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -23815,7 +23814,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -23922,7 +23921,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -23976,7 +23975,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -24030,7 +24029,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -24084,7 +24083,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -24138,7 +24137,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -24406,7 +24405,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -24460,7 +24459,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>531</v>
       </c>
@@ -24493,7 +24492,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -24547,7 +24546,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -24601,7 +24600,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -24655,7 +24654,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -24709,7 +24708,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -24763,7 +24762,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -24817,7 +24816,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -25032,7 +25031,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -25192,7 +25191,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -25246,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -25300,7 +25299,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -25354,7 +25353,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -25462,7 +25461,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -25516,7 +25515,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -25570,7 +25569,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -25624,7 +25623,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -25678,7 +25677,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -25731,7 +25730,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -25785,7 +25784,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -26001,7 +26000,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -26055,7 +26054,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -26109,7 +26108,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>11</v>
       </c>
@@ -26163,7 +26162,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -26217,7 +26216,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>11</v>
       </c>
@@ -26271,7 +26270,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>11</v>
       </c>
@@ -26325,7 +26324,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>11</v>
       </c>
@@ -26379,7 +26378,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -26433,7 +26432,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>11</v>
       </c>
@@ -26540,7 +26539,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>11</v>
       </c>
@@ -26594,7 +26593,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>11</v>
       </c>
@@ -26754,7 +26753,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>504</v>
       </c>
@@ -26820,7 +26819,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -26873,7 +26872,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -26926,7 +26925,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -26979,7 +26978,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>11</v>
       </c>
@@ -27033,7 +27032,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -27087,7 +27086,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>11</v>
       </c>
@@ -27194,7 +27193,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -27247,7 +27246,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -27301,7 +27300,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -27355,7 +27354,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -27409,7 +27408,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -27463,7 +27462,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -27679,7 +27678,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>11</v>
       </c>
@@ -27733,7 +27732,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>11</v>
       </c>
@@ -27787,7 +27786,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -27841,7 +27840,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>11</v>
       </c>
@@ -27895,7 +27894,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>11</v>
       </c>
@@ -27949,7 +27948,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>11</v>
       </c>
@@ -28003,7 +28002,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>11</v>
       </c>
@@ -28057,7 +28056,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>11</v>
       </c>
@@ -28111,7 +28110,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>11</v>
       </c>
@@ -28219,7 +28218,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -28273,7 +28272,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -28327,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -28489,7 +28488,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -28543,7 +28542,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -28705,7 +28704,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -28759,7 +28758,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -28813,7 +28812,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -28921,7 +28920,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -28975,7 +28974,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -29029,7 +29028,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -29083,7 +29082,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -29299,7 +29298,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -29353,7 +29352,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -29407,7 +29406,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -29461,7 +29460,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -29569,7 +29568,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -29623,7 +29622,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -29677,7 +29676,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -29731,7 +29730,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
         <v>540</v>
       </c>
@@ -29764,7 +29763,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -29818,7 +29817,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -29872,7 +29871,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -29926,7 +29925,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -29980,7 +29979,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -30034,7 +30033,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -30088,7 +30087,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -30142,7 +30141,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -30196,7 +30195,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -30250,7 +30249,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
         <v>542</v>
       </c>
@@ -30283,7 +30282,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>543</v>
       </c>
@@ -30316,7 +30315,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -30478,7 +30477,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>541</v>
       </c>
@@ -30511,7 +30510,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>544</v>
       </c>
@@ -30544,7 +30543,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
         <v>545</v>
       </c>
@@ -30577,7 +30576,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
         <v>546</v>
       </c>
@@ -30610,7 +30609,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
         <v>547</v>
       </c>
@@ -30643,7 +30642,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
         <v>548</v>
       </c>
@@ -30676,7 +30675,7 @@
         <v>KEEP</v>
       </c>
     </row>
-    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -30784,7 +30783,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
         <v>539</v>
       </c>
@@ -30871,7 +30870,7 @@
         <v>PHASE OUT</v>
       </c>
     </row>
-    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -30932,18 +30931,7 @@
       <c r="H468" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R464" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Oil"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters>
-        <filter val="PHASE OUT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R464" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A290:O409">
     <sortCondition ref="N290:N464"/>
   </sortState>
